--- a/TATA_Motors_Valuation_Model.xlsx
+++ b/TATA_Motors_Valuation_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham.toke/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9757EB62-3F98-5A4A-90EA-5D64AAB476F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F899B-8507-0F4B-8F6F-8BBD958E6903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" tabRatio="1000" firstSheet="2" activeTab="12" xr2:uid="{938418CC-0243-428A-906A-4C039DDAF3D5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" tabRatio="1000" xr2:uid="{938418CC-0243-428A-906A-4C039DDAF3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCTION" sheetId="25" r:id="rId1"/>
@@ -69,7 +69,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="124">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -80,7 +80,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
+          <xlrd:rvb i="5"/>
         </ext>
       </extLst>
     </bk>
@@ -91,13 +91,860 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="34"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="37"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="38"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="40"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="41"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="42"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="43"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="44"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="45"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="46"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="47"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="48"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="49"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="50"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="51"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="52"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="53"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="54"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="55"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="56"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="57"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="58"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="59"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="60"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="61"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="62"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="63"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="64"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="65"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="66"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="67"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="68"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="69"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="70"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="71"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="72"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="73"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="74"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="75"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="76"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="77"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="78"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="79"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="80"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="81"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="82"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="83"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="84"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="85"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="86"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="87"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="88"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="89"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="90"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="91"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="92"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="93"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="94"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="95"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="96"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="97"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="98"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="99"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="100"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="101"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="102"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="103"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="104"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="105"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="106"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="107"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="108"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="109"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="110"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="111"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="112"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="113"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="114"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="115"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="116"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="117"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="118"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="119"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="120"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="121"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="122"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="123"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="124"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="125"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="126"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="127"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="124">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -106,6 +953,369 @@
     </bk>
     <bk>
       <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
+    <bk>
+      <rc t="2" v="21"/>
+    </bk>
+    <bk>
+      <rc t="2" v="22"/>
+    </bk>
+    <bk>
+      <rc t="2" v="23"/>
+    </bk>
+    <bk>
+      <rc t="2" v="24"/>
+    </bk>
+    <bk>
+      <rc t="2" v="25"/>
+    </bk>
+    <bk>
+      <rc t="2" v="26"/>
+    </bk>
+    <bk>
+      <rc t="2" v="27"/>
+    </bk>
+    <bk>
+      <rc t="2" v="28"/>
+    </bk>
+    <bk>
+      <rc t="2" v="29"/>
+    </bk>
+    <bk>
+      <rc t="2" v="30"/>
+    </bk>
+    <bk>
+      <rc t="2" v="31"/>
+    </bk>
+    <bk>
+      <rc t="2" v="32"/>
+    </bk>
+    <bk>
+      <rc t="2" v="33"/>
+    </bk>
+    <bk>
+      <rc t="2" v="34"/>
+    </bk>
+    <bk>
+      <rc t="2" v="35"/>
+    </bk>
+    <bk>
+      <rc t="2" v="36"/>
+    </bk>
+    <bk>
+      <rc t="2" v="37"/>
+    </bk>
+    <bk>
+      <rc t="2" v="38"/>
+    </bk>
+    <bk>
+      <rc t="2" v="39"/>
+    </bk>
+    <bk>
+      <rc t="2" v="40"/>
+    </bk>
+    <bk>
+      <rc t="2" v="41"/>
+    </bk>
+    <bk>
+      <rc t="2" v="42"/>
+    </bk>
+    <bk>
+      <rc t="2" v="43"/>
+    </bk>
+    <bk>
+      <rc t="2" v="44"/>
+    </bk>
+    <bk>
+      <rc t="2" v="45"/>
+    </bk>
+    <bk>
+      <rc t="2" v="46"/>
+    </bk>
+    <bk>
+      <rc t="2" v="47"/>
+    </bk>
+    <bk>
+      <rc t="2" v="48"/>
+    </bk>
+    <bk>
+      <rc t="2" v="49"/>
+    </bk>
+    <bk>
+      <rc t="2" v="50"/>
+    </bk>
+    <bk>
+      <rc t="2" v="51"/>
+    </bk>
+    <bk>
+      <rc t="2" v="52"/>
+    </bk>
+    <bk>
+      <rc t="2" v="53"/>
+    </bk>
+    <bk>
+      <rc t="2" v="54"/>
+    </bk>
+    <bk>
+      <rc t="2" v="55"/>
+    </bk>
+    <bk>
+      <rc t="2" v="56"/>
+    </bk>
+    <bk>
+      <rc t="2" v="57"/>
+    </bk>
+    <bk>
+      <rc t="2" v="58"/>
+    </bk>
+    <bk>
+      <rc t="2" v="59"/>
+    </bk>
+    <bk>
+      <rc t="2" v="60"/>
+    </bk>
+    <bk>
+      <rc t="2" v="61"/>
+    </bk>
+    <bk>
+      <rc t="2" v="62"/>
+    </bk>
+    <bk>
+      <rc t="2" v="63"/>
+    </bk>
+    <bk>
+      <rc t="2" v="64"/>
+    </bk>
+    <bk>
+      <rc t="2" v="65"/>
+    </bk>
+    <bk>
+      <rc t="2" v="66"/>
+    </bk>
+    <bk>
+      <rc t="2" v="67"/>
+    </bk>
+    <bk>
+      <rc t="2" v="68"/>
+    </bk>
+    <bk>
+      <rc t="2" v="69"/>
+    </bk>
+    <bk>
+      <rc t="2" v="70"/>
+    </bk>
+    <bk>
+      <rc t="2" v="71"/>
+    </bk>
+    <bk>
+      <rc t="2" v="72"/>
+    </bk>
+    <bk>
+      <rc t="2" v="73"/>
+    </bk>
+    <bk>
+      <rc t="2" v="74"/>
+    </bk>
+    <bk>
+      <rc t="2" v="75"/>
+    </bk>
+    <bk>
+      <rc t="2" v="76"/>
+    </bk>
+    <bk>
+      <rc t="2" v="77"/>
+    </bk>
+    <bk>
+      <rc t="2" v="78"/>
+    </bk>
+    <bk>
+      <rc t="2" v="79"/>
+    </bk>
+    <bk>
+      <rc t="2" v="80"/>
+    </bk>
+    <bk>
+      <rc t="2" v="81"/>
+    </bk>
+    <bk>
+      <rc t="2" v="82"/>
+    </bk>
+    <bk>
+      <rc t="2" v="83"/>
+    </bk>
+    <bk>
+      <rc t="2" v="84"/>
+    </bk>
+    <bk>
+      <rc t="2" v="85"/>
+    </bk>
+    <bk>
+      <rc t="2" v="86"/>
+    </bk>
+    <bk>
+      <rc t="2" v="87"/>
+    </bk>
+    <bk>
+      <rc t="2" v="88"/>
+    </bk>
+    <bk>
+      <rc t="2" v="89"/>
+    </bk>
+    <bk>
+      <rc t="2" v="90"/>
+    </bk>
+    <bk>
+      <rc t="2" v="91"/>
+    </bk>
+    <bk>
+      <rc t="2" v="92"/>
+    </bk>
+    <bk>
+      <rc t="2" v="93"/>
+    </bk>
+    <bk>
+      <rc t="2" v="94"/>
+    </bk>
+    <bk>
+      <rc t="2" v="95"/>
+    </bk>
+    <bk>
+      <rc t="2" v="96"/>
+    </bk>
+    <bk>
+      <rc t="2" v="97"/>
+    </bk>
+    <bk>
+      <rc t="2" v="98"/>
+    </bk>
+    <bk>
+      <rc t="2" v="99"/>
+    </bk>
+    <bk>
+      <rc t="2" v="100"/>
+    </bk>
+    <bk>
+      <rc t="2" v="101"/>
+    </bk>
+    <bk>
+      <rc t="2" v="102"/>
+    </bk>
+    <bk>
+      <rc t="2" v="103"/>
+    </bk>
+    <bk>
+      <rc t="2" v="104"/>
+    </bk>
+    <bk>
+      <rc t="2" v="105"/>
+    </bk>
+    <bk>
+      <rc t="2" v="106"/>
+    </bk>
+    <bk>
+      <rc t="2" v="107"/>
+    </bk>
+    <bk>
+      <rc t="2" v="108"/>
+    </bk>
+    <bk>
+      <rc t="2" v="109"/>
+    </bk>
+    <bk>
+      <rc t="2" v="110"/>
+    </bk>
+    <bk>
+      <rc t="2" v="111"/>
+    </bk>
+    <bk>
+      <rc t="2" v="112"/>
+    </bk>
+    <bk>
+      <rc t="2" v="113"/>
+    </bk>
+    <bk>
+      <rc t="2" v="114"/>
+    </bk>
+    <bk>
+      <rc t="2" v="115"/>
+    </bk>
+    <bk>
+      <rc t="2" v="116"/>
+    </bk>
+    <bk>
+      <rc t="2" v="117"/>
+    </bk>
+    <bk>
+      <rc t="2" v="118"/>
+    </bk>
+    <bk>
+      <rc t="2" v="119"/>
+    </bk>
+    <bk>
+      <rc t="2" v="120"/>
+    </bk>
+    <bk>
+      <rc t="2" v="121"/>
+    </bk>
+    <bk>
+      <rc t="2" v="122"/>
+    </bk>
+    <bk>
+      <rc t="2" v="123"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -115,14 +1325,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="324">
   <si>
     <t>BUSINESS VALUATION PROJECT ON TATA MOTORS</t>
-  </si>
-  <si>
-    <t>Priyam Sengar: MBA202224-112
-Pubali Chakraborty: MBA202224-114
-Samir Shaw: MBA202224-136
-Shubham Toke: MBA202224-151 
-Shanya Shai: MBA202224-141
-Tushar Sachdeva: MBA202224-170</t>
   </si>
   <si>
     <t>CAGR FOR FREE CASH FLOWS IS COMPUTED FROM 2017-2023 EXCLUDING 2020 AND 2021</t>
@@ -1125,6 +2327,10 @@
   </si>
   <si>
     <t>Total shareholder's equity/ Number of equity shareholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Toke: MBA202224-151 
+</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +3115,19 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1919,18 +3137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2142,8 +3348,202 @@
 </rvTypesInfo>
 </file>
 
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <a r="1" c="61">
+    <v t="i">0</v>
+    <v t="i">31</v>
+    <v t="i">59</v>
+    <v t="i">90</v>
+    <v t="i">120</v>
+    <v t="i">151</v>
+    <v t="i">181</v>
+    <v t="i">212</v>
+    <v t="i">243</v>
+    <v t="i">273</v>
+    <v t="i">304</v>
+    <v t="i">334</v>
+    <v t="i">365</v>
+    <v t="i">396</v>
+    <v t="i">424</v>
+    <v t="i">455</v>
+    <v t="i">485</v>
+    <v t="i">516</v>
+    <v t="i">546</v>
+    <v t="i">577</v>
+    <v t="i">608</v>
+    <v t="i">638</v>
+    <v t="i">669</v>
+    <v t="i">699</v>
+    <v t="i">730</v>
+    <v t="i">761</v>
+    <v t="i">790</v>
+    <v t="i">821</v>
+    <v t="i">851</v>
+    <v t="i">882</v>
+    <v t="i">912</v>
+    <v t="i">943</v>
+    <v t="i">974</v>
+    <v t="i">1004</v>
+    <v t="i">1035</v>
+    <v t="i">1065</v>
+    <v t="i">1096</v>
+    <v t="i">1127</v>
+    <v t="i">1155</v>
+    <v t="i">1186</v>
+    <v t="i">1216</v>
+    <v t="i">1247</v>
+    <v t="i">1277</v>
+    <v t="i">1308</v>
+    <v t="i">1339</v>
+    <v t="i">1369</v>
+    <v t="i">1400</v>
+    <v t="i">1430</v>
+    <v t="i">1461</v>
+    <v t="i">1492</v>
+    <v t="i">1520</v>
+    <v t="i">1551</v>
+    <v t="i">1581</v>
+    <v t="i">1612</v>
+    <v t="i">1642</v>
+    <v t="i">1673</v>
+    <v t="i">1704</v>
+    <v t="i">1734</v>
+    <v t="i">1765</v>
+    <v t="i">1795</v>
+    <v t="i">1826</v>
+  </a>
+  <a r="1" c="61">
+    <v>11027.7</v>
+    <v>10492.85</v>
+    <v>10113.700000000001</v>
+    <v>10739.35</v>
+    <v>10736.15</v>
+    <v>10714.3</v>
+    <v>11356.5</v>
+    <v>11680.5</v>
+    <v>10930.45</v>
+    <v>10386.6</v>
+    <v>10876.75</v>
+    <v>10862.55</v>
+    <v>10830.95</v>
+    <v>10792.5</v>
+    <v>11623.9</v>
+    <v>11748.15</v>
+    <v>11922.8</v>
+    <v>11788.85</v>
+    <v>11118</v>
+    <v>11023.25</v>
+    <v>11474.45</v>
+    <v>11877.45</v>
+    <v>12056.05</v>
+    <v>12168.45</v>
+    <v>11962.1</v>
+    <v>11201.75</v>
+    <v>8597.75</v>
+    <v>9859.9</v>
+    <v>9580.2999999999993</v>
+    <v>10302.1</v>
+    <v>11073.45</v>
+    <v>11387.5</v>
+    <v>11247.55</v>
+    <v>11642.4</v>
+    <v>12968.95</v>
+    <v>13981.75</v>
+    <v>13634.6</v>
+    <v>14529.15</v>
+    <v>14690.7</v>
+    <v>14631.1</v>
+    <v>15582.8</v>
+    <v>15721.5</v>
+    <v>15763.05</v>
+    <v>17132.2</v>
+    <v>17618.150000000001</v>
+    <v>17671.650000000001</v>
+    <v>16983.2</v>
+    <v>17354.05</v>
+    <v>17339.849999999999</v>
+    <v>16793.900000000001</v>
+    <v>17464.75</v>
+    <v>17102.55</v>
+    <v>16584.55</v>
+    <v>15780.25</v>
+    <v>17158.25</v>
+    <v>17759.3</v>
+    <v>17094.349999999999</v>
+    <v>18012.2</v>
+    <v>18758.349999999999</v>
+    <v>18105.3</v>
+    <v>17662.150000000001</v>
+  </a>
+  <a r="1" c="61">
+    <v>399.5</v>
+    <v>369.9</v>
+    <v>326.85000000000002</v>
+    <v>340.4</v>
+    <v>282.5</v>
+    <v>269.3</v>
+    <v>264.10000000000002</v>
+    <v>267.5</v>
+    <v>223.7</v>
+    <v>179.1</v>
+    <v>171.95</v>
+    <v>172.7</v>
+    <v>181.2</v>
+    <v>177.45</v>
+    <v>174.25</v>
+    <v>214.3</v>
+    <v>172.6</v>
+    <v>162.55000000000001</v>
+    <v>135.6</v>
+    <v>116.7</v>
+    <v>117.45</v>
+    <v>177.7</v>
+    <v>161.5</v>
+    <v>185.15</v>
+    <v>176.6</v>
+    <v>128.94999999999999</v>
+    <v>71.05</v>
+    <v>93.25</v>
+    <v>87</v>
+    <v>98.25</v>
+    <v>104.65</v>
+    <v>143.19999999999999</v>
+    <v>133.30000000000001</v>
+    <v>132.65</v>
+    <v>180.35</v>
+    <v>183.85</v>
+    <v>262.7</v>
+    <v>322.95</v>
+    <v>301.8</v>
+    <v>293.85000000000002</v>
+    <v>318.75</v>
+    <v>339.6</v>
+    <v>293.95</v>
+    <v>287.3</v>
+    <v>333.35</v>
+    <v>483.7</v>
+    <v>458.6</v>
+    <v>482.4</v>
+    <v>517.75</v>
+    <v>454.05</v>
+    <v>433.75</v>
+    <v>437.6</v>
+    <v>443.55</v>
+    <v>411.8</v>
+    <v>449.6</v>
+    <v>471.1</v>
+    <v>404.6</v>
+    <v>412.75</v>
+    <v>439.4</v>
+    <v>387.95</v>
+    <v>452.1</v>
+  </a>
+</arrayData>
+</file>
+
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="130">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=ahk9xm&amp;q=XNSE%3aTATAMOTORS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2163,8 +3563,8 @@
     <v>1179</v>
     <v>535.75</v>
     <v>1.3515999999999999</v>
-    <v>-1.45</v>
-    <v>-2.127E-3</v>
+    <v>0.65</v>
+    <v>9.5549999999999997E-4</v>
     <v>INR</v>
     <v>Tata Motors Limited is an India-based global automobile manufacturer of cars, utility vehicles, pick-ups, trucks, and buses, offering a range of integrated, smart, and e-mobility solutions. The Company’s segments include Automotive and Others. The Automotive segment consists of four reportable sub-segments: Tata Commercial Vehicles, Tata Passenger Vehicles, Jaguar Land Rover and Vehicle Financing. Its automotive business includes all activities relating to the development, design, manufacture, assembly and sale of vehicles, as well as related spare parts and accessories, and distribution and service of vehicles. The Others segment consists of information technology services and insurance broking services. With operations in India, the United Kingdom, South Korea, Thailand, and Indonesia, the Company markets its vehicles in Africa, the Middle East, Latin America, Southeast Asia, and the South Asian Association for Regional Cooperation (SAARC) countries.</v>
     <v>86259</v>
@@ -2172,38 +3572,34 @@
     <v>XNSE</v>
     <v>XNSE</v>
     <v>A Block, Shivasagar Estate, Dr. Annie Besant Road, Worli, MUMBAI, MAHARASHTRA, 400018 IN</v>
-    <v>686</v>
+    <v>682.6</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45856.492858796293</v>
+    <v>45859.231192129628</v>
     <v>0</v>
-    <v>678</v>
+    <v>671.25</v>
     <v>2509822000000</v>
     <v>TATA MOTORS LIMITED</v>
     <v>TATA MOTORS LIMITED</v>
-    <v>683.2</v>
-    <v>11.04</v>
-    <v>681.7</v>
+    <v>680.5</v>
+    <v>11.0222</v>
     <v>680.25</v>
+    <v>680.9</v>
     <v>3681710000</v>
     <v>TATAMOTORS</v>
     <v>TATA MOTORS LIMITED (XNSE:TATAMOTORS)</v>
-    <v>5558670</v>
+    <v>2936614</v>
     <v>6711310</v>
     <v>1945</v>
   </rv>
   <rv s="2">
     <v>1</v>
   </rv>
-  <rv s="3">
-    <v>9</v>
-    <v>1</v>
-  </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=ahkqww&amp;q=NIFTY+50&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="4">
+  <rv s="3">
     <v>5</v>
     <v>NIFTY 50</v>
     <v>6</v>
@@ -2217,28 +3613,544 @@
     <v>Powered by Refinitiv</v>
     <v>26277.35</v>
     <v>21743.65</v>
-    <v>-143.05000000000001</v>
-    <v>-5.6969999999999998E-3</v>
+    <v>87.8</v>
+    <v>3.516E-3</v>
     <v>IN</v>
-    <v>25144.6</v>
+    <v>25071.05</v>
     <v>Index</v>
-    <v>4</v>
-    <v>24918.65</v>
+    <v>3</v>
+    <v>24882.3</v>
     <v>NIFTY 50</v>
-    <v>25108.55</v>
-    <v>25111.45</v>
+    <v>24999</v>
     <v>24968.400000000001</v>
+    <v>25056.2</v>
     <v>NIFTY</v>
     <v>NIFTY 50</v>
   </rv>
   <rv s="2">
-    <v>5</v>
+    <v>4</v>
+  </rv>
+  <rv s="4">
+    <fb>399.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11027.7</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>369.9</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10492.85</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>326.85000000000002</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10113.700000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>340.4</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10739.35</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>282.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10736.15</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>269.3</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10714.3</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>264.10000000000002</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11356.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>267.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11680.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>223.7</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10930.45</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>179.1</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10386.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>171.95</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10876.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>172.7</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10862.55</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>181.2</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10830.95</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>177.45</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10792.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>174.25</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11623.9</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>214.3</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11748.15</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>172.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11922.8</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>162.55000000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11788.85</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>135.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11118</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>116.7</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11023.25</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>117.45</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11474.45</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>177.7</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11877.45</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>161.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>12056.05</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>185.15</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>12168.45</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>176.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11962.1</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>128.94999999999999</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11201.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>71.05</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>8597.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>93.25</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>9859.9</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>87</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>9580.2999999999993</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>98.25</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>10302.1</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>104.65</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11073.45</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>143.19999999999999</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11387.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>133.30000000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11247.55</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>132.65</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>11642.4</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>180.35</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>12968.95</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>183.85</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>13981.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>262.7</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>13634.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>322.95</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>14529.15</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>301.8</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>14690.7</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>293.85000000000002</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>14631.1</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>318.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>15582.8</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>339.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>15721.5</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>293.95</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>15763.05</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>287.3</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17132.2</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>333.35</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17618.150000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>483.7</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17671.650000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>458.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>16983.2</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>482.4</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17354.05</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>517.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17339.849999999999</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>454.05</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>16793.900000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>433.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17464.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>437.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17102.55</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>443.55</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>16584.55</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>411.8</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>15780.25</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>449.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17158.25</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>471.1</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17759.3</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>404.6</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17094.349999999999</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>412.75</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>18012.2</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>439.4</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>18758.349999999999</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>387.95</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>18105.3</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>452.1</fb>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <fb>17662.150000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="5">
+    <v>10</v>
+    <v>ahkqww</v>
+    <v>Monthly</v>
+    <v>43101</v>
+    <v>44957</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638107200000000000,638886736789727724,0</v>
+    <v>0</v>
+    <v>ahkqww</v>
+    <v>NIFTY</v>
+    <v>1</v>
+  </rv>
+  <rv s="5">
+    <v>10</v>
+    <v>ahk9xm</v>
+    <v>Monthly</v>
+    <v>43101</v>
+    <v>44957</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638107200000000000,638886736789585584,0</v>
+    <v>0</v>
+    <v>ahk9xm</v>
+    <v>XNSE:TATAMOTORS</v>
+    <v>2</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2290,10 +4202,6 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
   <s t="_linkedentitycore">
     <k n="_Display" t="spb"/>
     <k n="_DisplayString" t="s"/>
@@ -2321,6 +4229,23 @@
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
+  </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_stockhistorycache">
+    <k n="_Format" t="spb"/>
+    <k n="Symbol" t="s"/>
+    <k n="Interval" t="s"/>
+    <k n="StartDate" t="i"/>
+    <k n="EndDate" t="i"/>
+    <k n="f1904" t="b"/>
+    <k n="fdcompat" t="b"/>
+    <k n="etag" t="s"/>
+    <k n="Date" t="a"/>
+    <k n="EntityId" t="s"/>
+    <k n="Instrument" t="s"/>
+    <k n="Close" t="a"/>
   </s>
 </rvStructures>
 </file>
@@ -2401,7 +4326,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="9">
+  <spbData count="11">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2473,12 +4398,19 @@
       <v>from previous close</v>
       <v>from previous close</v>
     </spb>
+    <spb s="8">
+      <v>1</v>
+    </spb>
+    <spb s="9">
+      <v>10</v>
+      <v>1</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="8">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2545,12 +4477,19 @@
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
   </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="Date" t="i"/>
+    <k n="Close" t="i"/>
+  </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="7">
+  <dxfs count="8">
     <x:dxf>
       <x:numFmt numFmtId="0" formatCode="General"/>
     </x:dxf>
@@ -2571,6 +4510,9 @@
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </x:dxf>
   </dxfs>
   <richProperties>
@@ -2601,6 +4543,7 @@
     <rSty dxfid="6">
       <rpv i="0">0.00</rpv>
     </rSty>
+    <rSty dxfid="7"/>
   </richStyles>
 </richStyleSheet>
 </file>
@@ -2904,8 +4847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA491411-2A11-42D3-BE41-F6F91939B100}">
   <dimension ref="E1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2927,7 +4870,7 @@
       <c r="N6" s="118"/>
       <c r="O6" s="118"/>
       <c r="Q6" s="109" t="s">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="R6" s="110"/>
       <c r="S6" s="110"/>
@@ -3102,13 +5045,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="122"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="21">
         <v>2007.76</v>
@@ -3116,7 +5059,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="30">
         <f>'BALANCE SHEET'!L7+'BALANCE SHEET'!L8</f>
@@ -3147,14 +5090,14 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="31">
         <f>B2/B3</f>
         <v>0.10638266306363588</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="30">
         <f>'FREE CASH FLOWS'!G6</f>
@@ -3187,7 +5130,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E5" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -3195,18 +5138,18 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="80" t="e">
-        <f>'FREE CASH FLOWS'!M6*(1+B20)/('WACC APPROACH'!B19-'WACC APPROACH'!B20)</f>
-        <v>#DIV/0!</v>
+      <c r="L5" s="80">
+        <f ca="1">'FREE CASH FLOWS'!M6*(1+B20)/('WACC APPROACH'!B19-'WACC APPROACH'!B20)</f>
+        <v>274693.05887425941</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="122"/>
       <c r="E6" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="30">
         <f>F4</f>
@@ -3232,14 +5175,14 @@
         <f t="shared" si="0"/>
         <v>12653.267651984635</v>
       </c>
-      <c r="L6" s="91" t="e">
-        <f>SUM(L4:L5)</f>
-        <v>#DIV/0!</v>
+      <c r="L6" s="91">
+        <f ca="1">SUM(L4:L5)</f>
+        <v>289834.8033115897</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="21">
         <f>7.19%</f>
@@ -3248,30 +5191,30 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="34">
+        <f ca="1">'Beta Calculation'!H5</f>
+        <v>0.1136946806042593</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="34" t="e">
-        <f>'Beta Calculation'!H5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="37" t="e">
-        <f>NPV(B19,F6:L6)</f>
-        <v>#DIV/0!</v>
+      <c r="F8" s="37">
+        <f ca="1">NPV(B19,F6:L6)</f>
+        <v>170413.11801339631</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="34" t="e">
-        <f>B8-B7</f>
-        <v>#DIV/0!</v>
+        <v>195</v>
+      </c>
+      <c r="B9" s="34">
+        <f ca="1">B8-B7</f>
+        <v>4.1794680604259296E-2</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="30">
         <f>B3</f>
@@ -3280,30 +5223,30 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="34">
+        <f ca="1">'Beta Calculation'!H17</f>
+        <v>1.7645935455405979</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="34" t="e">
-        <f>'Beta Calculation'!H17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="37" t="e">
-        <f>F8-F9</f>
-        <v>#DIV/0!</v>
+      <c r="F10" s="37">
+        <f ca="1">F8-F9</f>
+        <v>151540.11801339631</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="31" t="e">
-        <f>B7+B10*(B9)</f>
-        <v>#DIV/0!</v>
+        <v>111</v>
+      </c>
+      <c r="B11" s="31">
+        <f ca="1">B7+B10*(B9)</f>
+        <v>0.14565062363220677</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="30">
         <f>'Data Sheet'!B4</f>
@@ -3312,22 +5255,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E12" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="21" t="e">
-        <f>F10/F11</f>
-        <v>#DIV/0!</v>
+        <v>199</v>
+      </c>
+      <c r="F12" s="21">
+        <f ca="1">F10/F11</f>
+        <v>413.51274557482407</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="21">
         <v>0.84</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="21">
         <f>'Data Sheet'!B6</f>
@@ -3336,23 +5279,23 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="32">
         <f>B13/(1+B13)</f>
         <v>0.45652173913043481</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="50" t="e">
-        <f>(F13-F12)/F13</f>
-        <v>#DIV/0!</v>
+        <v>203</v>
+      </c>
+      <c r="F14" s="50">
+        <f ca="1">(F13-F12)/F13</f>
+        <v>0.34101554490067876</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="32">
         <f>1-B14</f>
@@ -3361,7 +5304,7 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J16" s="123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K16" s="123"/>
       <c r="L16" s="123"/>
@@ -3372,7 +5315,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="33">
         <v>0.3</v>
@@ -3389,9 +5332,9 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I18" s="63"/>
-      <c r="J18" s="88" t="e">
-        <f>L6</f>
-        <v>#DIV/0!</v>
+      <c r="J18" s="88">
+        <f ca="1">L6</f>
+        <v>289834.8033115897</v>
       </c>
       <c r="K18" s="84">
         <v>0.09</v>
@@ -3415,11 +5358,11 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="87" t="e">
-        <f>B14*B4*(1-B17)+B15*B11</f>
-        <v>#DIV/0!</v>
+        <v>206</v>
+      </c>
+      <c r="B19" s="87">
+        <f ca="1">B14*B4*(1-B17)+B15*B11</f>
+        <v>0.11315414647479601</v>
       </c>
       <c r="I19" s="63"/>
       <c r="J19" s="85">
@@ -3448,7 +5391,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="86">
         <v>5.5E-2</v>
@@ -3638,16 +5581,16 @@
         <v>47573</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="71" t="e">
-        <f>'WACC APPROACH'!B19</f>
-        <v>#DIV/0!</v>
+        <v>206</v>
+      </c>
+      <c r="K1" s="71">
+        <f ca="1">'WACC APPROACH'!B19</f>
+        <v>0.11315414647479601</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="30">
         <v>5156.0171270964402</v>
@@ -3671,16 +5614,16 @@
         <v>15136.313364674137</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="K2" s="50" t="e">
-        <f>'WACC APPROACH'!B11*'WACC APPROACH'!B15+'WACC APPROACH'!B4*'WACC APPROACH'!B14</f>
-        <v>#DIV/0!</v>
+        <v>208</v>
+      </c>
+      <c r="K2" s="50">
+        <f ca="1">'WACC APPROACH'!B11*'WACC APPROACH'!B15+'WACC APPROACH'!B4*'WACC APPROACH'!B14</f>
+        <v>0.12772394598133743</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3694,7 +5637,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="30">
         <f>SUM(B2:B3)</f>
@@ -3727,11 +5670,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="37" t="e">
-        <f>NPV(K1,B4:H4)</f>
-        <v>#DIV/0!</v>
+        <v>209</v>
+      </c>
+      <c r="B5" s="37">
+        <f ca="1">NPV(K1,B4:H4)</f>
+        <v>171972.55469993272</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3757,7 +5700,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="30">
         <v>6169.7179573558315</v>
@@ -3780,7 +5723,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -3793,7 +5736,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="30">
         <f>SUM(B8:B9)</f>
@@ -3822,11 +5765,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="37" t="e">
-        <f>NPV(K1,B10:G10)</f>
-        <v>#DIV/0!</v>
+        <v>209</v>
+      </c>
+      <c r="B11" s="37">
+        <f ca="1">NPV(K1,B10:G10)</f>
+        <v>186275.94521699735</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3849,7 +5792,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="30">
         <v>7382.7178488747923</v>
@@ -3869,7 +5812,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -3881,7 +5824,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="30">
         <f>SUM(B14:B15)</f>
@@ -3906,11 +5849,11 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="35" t="e">
-        <f>NPV(K1,B16:F16)</f>
-        <v>#DIV/0!</v>
+        <v>209</v>
+      </c>
+      <c r="B17" s="35">
+        <f ca="1">NPV(K1,B16:F16)</f>
+        <v>201184.1228494567</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3930,7 +5873,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="30">
         <v>8834.2000741073662</v>
@@ -3947,7 +5890,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -3958,7 +5901,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="30">
         <f>SUM(B20:B21)</f>
@@ -3979,11 +5922,11 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="35" t="e">
-        <f>NPV(K1,B22:E22)</f>
-        <v>#DIV/0!</v>
+        <v>209</v>
+      </c>
+      <c r="B23" s="35">
+        <f ca="1">NPV(K1,B22:E22)</f>
+        <v>216566.22270589269</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -4000,7 +5943,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="30">
         <v>10571.051548618132</v>
@@ -4014,7 +5957,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -4024,7 +5967,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="30">
         <f>SUM(B26:B27)</f>
@@ -4041,11 +5984,11 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B29" s="35" t="e">
-        <f>NPV(K1,B28:D28)</f>
-        <v>#DIV/0!</v>
+        <v>209</v>
+      </c>
+      <c r="B29" s="35">
+        <f ca="1">NPV(K1,B28:D28)</f>
+        <v>232237.38871734127</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -4059,7 +6002,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="30">
         <v>12649.377408948152</v>
@@ -4070,7 +6013,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="30">
@@ -4079,7 +6022,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="30">
         <f>SUM(B32:B33)</f>
@@ -4092,11 +6035,11 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="35" t="e">
-        <f>NPV(K1,B34:C34)</f>
-        <v>#DIV/0!</v>
+        <v>209</v>
+      </c>
+      <c r="B35" s="35">
+        <f ca="1">NPV(K1,B34:C34)</f>
+        <v>247944.96066856929</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -4107,7 +6050,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="30">
         <v>15136.313364674137</v>
@@ -4115,7 +6058,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="30">
         <v>278014.59396359685</v>
@@ -4123,7 +6066,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="30">
         <f>SUM(B38:B39)</f>
@@ -4132,11 +6075,11 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="35" t="e">
-        <f>NPV(K1,B40)</f>
-        <v>#DIV/0!</v>
+        <v>209</v>
+      </c>
+      <c r="B41" s="35">
+        <f ca="1">NPV(K1,B40)</f>
+        <v>263351.58365679998</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -4164,40 +6107,40 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" s="37" t="e">
-        <f>B5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C44" s="37" t="e">
-        <f>B11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D44" s="37" t="e">
-        <f>B17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="37" t="e">
-        <f>B23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="37" t="e">
-        <f>B29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="37" t="e">
-        <f>B35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H44" s="37" t="e">
-        <f>B41</f>
-        <v>#DIV/0!</v>
+        <v>209</v>
+      </c>
+      <c r="B44" s="37">
+        <f ca="1">B5</f>
+        <v>171972.55469993272</v>
+      </c>
+      <c r="C44" s="37">
+        <f ca="1">B11</f>
+        <v>186275.94521699735</v>
+      </c>
+      <c r="D44" s="37">
+        <f ca="1">B17</f>
+        <v>201184.1228494567</v>
+      </c>
+      <c r="E44" s="37">
+        <f ca="1">B23</f>
+        <v>216566.22270589269</v>
+      </c>
+      <c r="F44" s="37">
+        <f ca="1">B29</f>
+        <v>232237.38871734127</v>
+      </c>
+      <c r="G44" s="37">
+        <f ca="1">B35</f>
+        <v>247944.96066856929</v>
+      </c>
+      <c r="H44" s="37">
+        <f ca="1">B41</f>
+        <v>263351.58365679998</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="32">
         <f>'WACC APPROACH'!$B$14</f>
@@ -4230,101 +6173,101 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="B46" s="37" t="e">
-        <f>B45*B44</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C46" s="37" t="e">
-        <f t="shared" ref="C46:H46" si="5">C45*C44</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D46" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>210</v>
+      </c>
+      <c r="B46" s="37">
+        <f ca="1">B45*B44</f>
+        <v>78509.209754317111</v>
+      </c>
+      <c r="C46" s="37">
+        <f t="shared" ref="C46:H46" ca="1" si="5">C45*C44</f>
+        <v>85039.018468629234</v>
+      </c>
+      <c r="D46" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>91844.925648665027</v>
+      </c>
+      <c r="E46" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>98867.188626603194</v>
+      </c>
+      <c r="F46" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>106021.41658835145</v>
+      </c>
+      <c r="G46" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>113192.26465304251</v>
+      </c>
+      <c r="H46" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>120225.72297375652</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="37" t="e">
-        <f>B46*'WACC APPROACH'!$B$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C47" s="37" t="e">
-        <f>C46*'WACC APPROACH'!$B$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D47" s="37" t="e">
-        <f>D46*'WACC APPROACH'!$B$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="37" t="e">
-        <f>E46*'WACC APPROACH'!$B$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="37" t="e">
-        <f>F46*'WACC APPROACH'!$B$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="37" t="e">
-        <f>G46*'WACC APPROACH'!$B$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="37" t="e">
-        <f>H46*'WACC APPROACH'!$B$4</f>
-        <v>#DIV/0!</v>
+        <v>72</v>
+      </c>
+      <c r="B47" s="37">
+        <f ca="1">B46*'WACC APPROACH'!$B$4</f>
+        <v>8352.0188086858325</v>
+      </c>
+      <c r="C47" s="37">
+        <f ca="1">C46*'WACC APPROACH'!$B$4</f>
+        <v>9046.6772490104922</v>
+      </c>
+      <c r="D47" s="37">
+        <f ca="1">D46*'WACC APPROACH'!$B$4</f>
+        <v>9770.707779386621</v>
+      </c>
+      <c r="E47" s="37">
+        <f ca="1">E46*'WACC APPROACH'!$B$4</f>
+        <v>10517.75481571286</v>
+      </c>
+      <c r="F47" s="37">
+        <f ca="1">F46*'WACC APPROACH'!$B$4</f>
+        <v>11278.840638447968</v>
+      </c>
+      <c r="G47" s="37">
+        <f ca="1">G46*'WACC APPROACH'!$B$4</f>
+        <v>12041.694551994522</v>
+      </c>
+      <c r="H47" s="37">
+        <f ca="1">H46*'WACC APPROACH'!$B$4</f>
+        <v>12789.932578699167</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" s="37" t="e">
-        <f>B47*0.3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C48" s="37" t="e">
-        <f t="shared" ref="C48:H48" si="6">C47*0.3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="37" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="37" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="37" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="37" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="37" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>211</v>
+      </c>
+      <c r="B48" s="37">
+        <f ca="1">B47*0.3</f>
+        <v>2505.6056426057498</v>
+      </c>
+      <c r="C48" s="37">
+        <f t="shared" ref="C48:H48" ca="1" si="6">C47*0.3</f>
+        <v>2714.0031747031476</v>
+      </c>
+      <c r="D48" s="37">
+        <f t="shared" ca="1" si="6"/>
+        <v>2931.2123338159863</v>
+      </c>
+      <c r="E48" s="37">
+        <f t="shared" ca="1" si="6"/>
+        <v>3155.3264447138581</v>
+      </c>
+      <c r="F48" s="37">
+        <f t="shared" ca="1" si="6"/>
+        <v>3383.6521915343901</v>
+      </c>
+      <c r="G48" s="37">
+        <f t="shared" ca="1" si="6"/>
+        <v>3612.5083655983567</v>
+      </c>
+      <c r="H48" s="37">
+        <f t="shared" ca="1" si="6"/>
+        <v>3836.9797736097498</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4362,7 +6305,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="30">
         <v>5156.0171270964402</v>
@@ -4388,73 +6331,73 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" s="37" t="e">
-        <f>B48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C53" s="37" t="e">
-        <f t="shared" ref="C53:H53" si="7">C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>211</v>
+      </c>
+      <c r="B53" s="37">
+        <f ca="1">B48</f>
+        <v>2505.6056426057498</v>
+      </c>
+      <c r="C53" s="37">
+        <f t="shared" ref="C53:H53" ca="1" si="7">C48</f>
+        <v>2714.0031747031476</v>
+      </c>
+      <c r="D53" s="37">
+        <f t="shared" ca="1" si="7"/>
+        <v>2931.2123338159863</v>
+      </c>
+      <c r="E53" s="37">
+        <f t="shared" ca="1" si="7"/>
+        <v>3155.3264447138581</v>
+      </c>
+      <c r="F53" s="37">
+        <f t="shared" ca="1" si="7"/>
+        <v>3383.6521915343901</v>
+      </c>
+      <c r="G53" s="37">
+        <f t="shared" ca="1" si="7"/>
+        <v>3612.5083655983567</v>
+      </c>
+      <c r="H53" s="37">
+        <f t="shared" ca="1" si="7"/>
+        <v>3836.9797736097498</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B54" s="30" t="e">
-        <f>SUM(B52:B53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C54" s="30" t="e">
-        <f t="shared" ref="C54:H54" si="8">SUM(C52:C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="30" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E54" s="30" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="30" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="30" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="30" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>212</v>
+      </c>
+      <c r="B54" s="30">
+        <f ca="1">SUM(B52:B53)</f>
+        <v>7661.6227697021895</v>
+      </c>
+      <c r="C54" s="30">
+        <f t="shared" ref="C54:H54" ca="1" si="8">SUM(C52:C53)</f>
+        <v>8883.7211320589795</v>
+      </c>
+      <c r="D54" s="30">
+        <f t="shared" ca="1" si="8"/>
+        <v>10313.930182690779</v>
+      </c>
+      <c r="E54" s="30">
+        <f t="shared" ca="1" si="8"/>
+        <v>11989.526518821225</v>
+      </c>
+      <c r="F54" s="30">
+        <f t="shared" ca="1" si="8"/>
+        <v>13954.703740152523</v>
+      </c>
+      <c r="G54" s="30">
+        <f t="shared" ca="1" si="8"/>
+        <v>16261.885774546508</v>
+      </c>
+      <c r="H54" s="30">
+        <f t="shared" ca="1" si="8"/>
+        <v>18973.293138283887</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="21"/>
@@ -4462,51 +6405,51 @@
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
-      <c r="H55" s="30" t="e">
-        <f>H54*(1+'WACC APPROACH'!B20)/('CAPITAL CASH FLOW'!K2-'WACC APPROACH'!B20)</f>
-        <v>#DIV/0!</v>
+      <c r="H55" s="30">
+        <f ca="1">H54*(1+'WACC APPROACH'!B20)/('CAPITAL CASH FLOW'!K2-'WACC APPROACH'!B20)</f>
+        <v>275243.92400305468</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B56" s="30" t="e">
-        <f>SUM(B54:B55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C56" s="30" t="e">
-        <f t="shared" ref="C56:H56" si="9">SUM(C54:C55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D56" s="30" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E56" s="30" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="30" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="30" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" s="30" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>213</v>
+      </c>
+      <c r="B56" s="30">
+        <f ca="1">SUM(B54:B55)</f>
+        <v>7661.6227697021895</v>
+      </c>
+      <c r="C56" s="30">
+        <f t="shared" ref="C56:H56" ca="1" si="9">SUM(C54:C55)</f>
+        <v>8883.7211320589795</v>
+      </c>
+      <c r="D56" s="30">
+        <f t="shared" ca="1" si="9"/>
+        <v>10313.930182690779</v>
+      </c>
+      <c r="E56" s="30">
+        <f t="shared" ca="1" si="9"/>
+        <v>11989.526518821225</v>
+      </c>
+      <c r="F56" s="30">
+        <f t="shared" ca="1" si="9"/>
+        <v>13954.703740152523</v>
+      </c>
+      <c r="G56" s="30">
+        <f t="shared" ca="1" si="9"/>
+        <v>16261.885774546508</v>
+      </c>
+      <c r="H56" s="30">
+        <f t="shared" ca="1" si="9"/>
+        <v>294217.21714133857</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="37" t="e">
-        <f>NPV(K2,B56:H56)</f>
-        <v>#DIV/0!</v>
+        <v>194</v>
+      </c>
+      <c r="B59" s="37">
+        <f ca="1">NPV(K2,B56:H56)</f>
+        <v>170778.11238633393</v>
       </c>
     </row>
   </sheetData>
@@ -4544,7 +6487,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -4582,57 +6525,57 @@
     </row>
     <row r="3" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="D3" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="E3" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="G3" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="H3" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="I3" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="M3" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="N3" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="O3" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="P3" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="41">
         <v>627.25</v>
@@ -4685,7 +6628,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="44">
         <v>179.25</v>
@@ -4739,7 +6682,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="44">
         <v>10526.15</v>
@@ -4792,7 +6735,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="61">
         <v>1555.8</v>
@@ -4845,7 +6788,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="61">
         <v>3345</v>
@@ -4898,10 +6841,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="62" t="s">
         <v>235</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>236</v>
       </c>
       <c r="I9" s="69">
         <f>AVERAGE(I4:I7)</f>
@@ -4922,7 +6865,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N10" s="46">
         <f>MEDIAN(N4:N8)</f>
@@ -4939,7 +6882,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N11" s="46">
         <f>MAX(N4:N8)</f>
@@ -4956,7 +6899,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N12" s="46">
         <f>MIN(N4:N8)</f>
@@ -4973,45 +6916,45 @@
     </row>
     <row r="15" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>240</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>241</v>
       </c>
       <c r="C15" s="62">
         <f>AVERAGE(N16:P16)</f>
         <v>604129.71487924049</v>
       </c>
       <c r="K15" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="M15" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="M15" s="39" t="s">
-        <v>221</v>
-      </c>
       <c r="N15" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="O15" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="O15" s="47" t="s">
+      <c r="P15" s="47" t="s">
         <v>228</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="126"/>
       <c r="B16" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="62">
         <f>AVERAGE(N17:P17)</f>
         <v>527032.4652665758</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K16" s="41">
         <v>376268.39</v>
@@ -5037,7 +6980,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J17" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K17" s="41">
         <v>376268.39</v>
@@ -5125,7 +7068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E95F375-1C72-4C01-8C73-605790005E86}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="171" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="171" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -5139,10 +7082,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s">
         <v>244</v>
-      </c>
-      <c r="B1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5153,7 +7096,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" s="30">
         <f>'P&amp;L'!L6*(1-0.3)</f>
@@ -5162,22 +7105,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="50" t="e">
-        <f>'WACC APPROACH'!$B$19</f>
-        <v>#DIV/0!</v>
+        <v>246</v>
+      </c>
+      <c r="B4" s="50">
+        <f ca="1">'WACC APPROACH'!$B$19</f>
+        <v>0.11315414647479601</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" s="122"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" s="30">
         <f>'BALANCE SHEET'!L36</f>
@@ -5186,7 +7129,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="30">
         <f>'BALANCE SHEET'!L7+'BALANCE SHEET'!L8</f>
@@ -5195,65 +7138,65 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="30">
         <v>40290</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" s="128"/>
       <c r="E8" s="128"/>
       <c r="F8" s="128"/>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="30" t="e">
-        <f>B3-(B4*B8)</f>
-        <v>#DIV/0!</v>
+        <v>243</v>
+      </c>
+      <c r="B10" s="30">
+        <f ca="1">B3-(B4*B8)</f>
+        <v>-1242.9808282114404</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="30" t="e">
-        <f>B10/B4</f>
-        <v>#DIV/0!</v>
+        <v>253</v>
+      </c>
+      <c r="B11" s="30">
+        <f ca="1">B10/B4</f>
+        <v>-10984.84560164397</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="30">
+        <f ca="1">B8+B11</f>
+        <v>29305.15439835603</v>
+      </c>
+      <c r="C13" t="s">
         <v>255</v>
-      </c>
-      <c r="B13" s="30" t="e">
-        <f>B8+B11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" s="50">
         <v>0.09</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="129"/>
     </row>
@@ -5283,7 +7226,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" s="30">
         <f>B8</f>
@@ -5298,7 +7241,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B20" s="33">
         <f>B15</f>
@@ -5313,11 +7256,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="33" t="e">
-        <f>B4</f>
-        <v>#DIV/0!</v>
+        <v>206</v>
+      </c>
+      <c r="B21" s="33">
+        <f ca="1">B4</f>
+        <v>0.11315414647479601</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5328,11 +7271,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="21" t="e">
-        <f>(B20-B21)*B19</f>
-        <v>#DIV/0!</v>
+        <v>243</v>
+      </c>
+      <c r="B22" s="21">
+        <f ca="1">(B20-B21)*B19</f>
+        <v>-932.88056146953113</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -5343,44 +7286,44 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" s="21" t="e">
-        <f>B22/B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="21" t="e">
-        <f>B23/(1+B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="21" t="e">
-        <f>B23/(1+B21)^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="21" t="e">
-        <f>B23/(1+B21)^3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="21" t="e">
-        <f>B23/(1+B21)^4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="21" t="e">
-        <f>B23/(1+B21)^5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="21" t="e">
-        <f>B23/(1+B21)^6</f>
-        <v>#DIV/0!</v>
+        <v>259</v>
+      </c>
+      <c r="B23" s="21">
+        <f ca="1">B22/B21</f>
+        <v>-8244.3338625449433</v>
+      </c>
+      <c r="C23" s="21">
+        <f ca="1">B23/(1+B21)</f>
+        <v>-7406.2823092862736</v>
+      </c>
+      <c r="D23" s="21">
+        <f ca="1">B23/(1+B21)^2</f>
+        <v>-6653.4202228334116</v>
+      </c>
+      <c r="E23" s="21">
+        <f ca="1">B23/(1+B21)^3</f>
+        <v>-5977.0879387224713</v>
+      </c>
+      <c r="F23" s="21">
+        <f ca="1">B23/(1+B21)^4</f>
+        <v>-5369.5060631549331</v>
+      </c>
+      <c r="G23" s="21">
+        <f ca="1">B23/(1+B21)^5</f>
+        <v>-4823.685991881187</v>
+      </c>
+      <c r="H23" s="21">
+        <f ca="1">B23/(1+B21)^6</f>
+        <v>-4333.3495250025599</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="21" t="e">
-        <f>SUM(B23:H23)</f>
-        <v>#DIV/0!</v>
+        <v>260</v>
+      </c>
+      <c r="B24" s="21">
+        <f ca="1">SUM(B23:H23)</f>
+        <v>-42807.665913425779</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -5391,11 +7334,11 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="30" t="e">
-        <f>B13-B24</f>
-        <v>#DIV/0!</v>
+        <v>194</v>
+      </c>
+      <c r="B26" s="30">
+        <f ca="1">B13-B24</f>
+        <v>72112.820311781805</v>
       </c>
     </row>
   </sheetData>
@@ -5426,22 +7369,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5470,7 +7413,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="30">
         <f>'P&amp;L'!L6</f>
@@ -5503,7 +7446,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="30">
         <f>'P&amp;L'!L11</f>
@@ -5536,7 +7479,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="30">
         <f>'P&amp;L'!L8</f>
@@ -5569,7 +7512,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="30">
         <f>B6-B7+B8</f>
@@ -5602,7 +7545,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="30">
         <f>EVA!B8*(1+0.055)</f>
@@ -5635,7 +7578,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="30">
         <f t="shared" ref="B11:H11" si="2">B9/B10</f>
@@ -5668,7 +7611,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="21"/>
@@ -5676,18 +7619,18 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="30" t="e">
-        <f>H9*(1+'WACC APPROACH'!B20)/('WACC APPROACH'!B19-'WACC APPROACH'!B20)</f>
-        <v>#DIV/0!</v>
+      <c r="H12" s="30">
+        <f ca="1">H9*(1+'WACC APPROACH'!B20)/('WACC APPROACH'!B19-'WACC APPROACH'!B20)</f>
+        <v>153083.23863464603</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="37" t="e">
-        <f>NPV('WACC APPROACH'!B19,CFROI!B11:H11)+NPV('WACC APPROACH'!B20,CFROI!H12)</f>
-        <v>#DIV/0!</v>
+        <v>194</v>
+      </c>
+      <c r="B13" s="37">
+        <f ca="1">NPV('WACC APPROACH'!B19,CFROI!B11:H11)+NPV('WACC APPROACH'!B20,CFROI!H12)</f>
+        <v>145103.30179411193</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -5715,90 +7658,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="78" t="s">
+      <c r="D1" s="135" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="131" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="132" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="136" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="136"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="132"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="130" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="137" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="133" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="133"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <f>'P&amp;L'!K13</f>
         <v>8.2140426941257942</v>
       </c>
       <c r="E5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="81" t="s">
+      <c r="N5" s="81" t="s">
         <v>278</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" s="128"/>
       <c r="F6" s="128"/>
       <c r="G6" s="128"/>
       <c r="H6" s="128"/>
       <c r="I6" s="128"/>
-      <c r="K6" s="130" t="s">
-        <v>281</v>
-      </c>
-      <c r="L6" s="130"/>
+      <c r="K6" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="L6" s="132"/>
       <c r="M6" s="21">
         <f>3320662007+508502896</f>
         <v>3829164903</v>
@@ -5808,7 +7751,7 @@
         <v>3829847221</v>
       </c>
       <c r="O6" s="128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P6" s="128"/>
     </row>
@@ -5819,22 +7762,22 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="137" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="137"/>
+      <c r="A8" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="134"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="136"/>
+      <c r="A9" s="132" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="133"/>
       <c r="C9" s="21">
         <f>D7+(D5-0)</f>
         <v>10.214478871214613</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="128"/>
@@ -5851,47 +7794,52 @@
       <c r="Q9" s="128"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="130" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="21" t="e">
-        <f>D5-(D7*'WACC APPROACH'!B19)</f>
-        <v>#DIV/0!</v>
+      <c r="A10" s="132" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="21">
+        <f ca="1">D5-(D7*'WACC APPROACH'!B19)</f>
+        <v>7.9876850459300046</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="132" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="21">
+        <f ca="1">(C10*(1.055))/(0.113-0.055)</f>
+        <v>145.29323661131301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="21" t="e">
-        <f>(C10*(1.055))/(0.113-0.055)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="130" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="21" t="e">
-        <f>C10/1.113</f>
-        <v>#DIV/0!</v>
+      <c r="B12" s="133"/>
+      <c r="C12" s="21">
+        <f ca="1">C10/1.113</f>
+        <v>7.1767161239263295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="82"/>
-      <c r="C13" s="21" t="e">
-        <f>C9+C12+C11</f>
-        <v>#DIV/0!</v>
+      <c r="C13" s="21">
+        <f ca="1">C9+C12+C11</f>
+        <v>162.68443160645396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
@@ -5902,11 +7850,6 @@
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5941,15 +7884,15 @@
         <v>2023</v>
       </c>
       <c r="F1" s="106" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>287</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>288</v>
       </c>
       <c r="C3" s="96">
         <f>C4/C5</f>
@@ -5969,7 +7912,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="95">
         <f>('BALANCE SHEET'!J31+'BALANCE SHEET'!J32+'BALANCE SHEET'!J33+'BALANCE SHEET'!J34)-('BALANCE SHEET'!J8+'BALANCE SHEET'!J12+'BALANCE SHEET'!J13)</f>
@@ -5986,7 +7929,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="101">
         <v>65060</v>
@@ -6000,7 +7943,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="63">
         <f>C3*F3</f>
@@ -6017,10 +7960,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="99" t="s">
         <v>291</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>292</v>
       </c>
       <c r="C7" s="97">
         <f>C8/C9</f>
@@ -6040,7 +7983,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="76">
         <v>-2395.44</v>
@@ -6056,7 +7999,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="101">
         <v>65060</v>
@@ -6070,7 +8013,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="63">
         <f>C7*$F$7</f>
@@ -6087,10 +8030,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="99" t="s">
         <v>294</v>
-      </c>
-      <c r="B11" s="99" t="s">
-        <v>295</v>
       </c>
       <c r="C11" s="97">
         <f>C12/C13</f>
@@ -6110,7 +8053,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="76">
         <f>'Data Sheet'!I28+'Data Sheet'!I27+'Data Sheet'!I25</f>
@@ -6127,7 +8070,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" s="101">
         <v>65060</v>
@@ -6141,7 +8084,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="63">
         <f>C11*$F$11</f>
@@ -6158,10 +8101,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="99" t="s">
         <v>296</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>297</v>
       </c>
       <c r="C15" s="97">
         <f>C16/C17</f>
@@ -6181,7 +8124,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="76">
         <v>31000</v>
@@ -6195,7 +8138,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="101">
         <f>'BALANCE SHEET'!J7+'BALANCE SHEET'!J9</f>
@@ -6212,7 +8155,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C18" s="63">
         <f>C15*$F$15</f>
@@ -6229,10 +8172,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="99" t="s">
         <v>299</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>300</v>
       </c>
       <c r="C19" s="97">
         <f>C20/C21</f>
@@ -6252,7 +8195,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="76">
         <v>30175.03</v>
@@ -6266,7 +8209,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C21" s="101">
         <v>65060</v>
@@ -6280,7 +8223,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C22" s="63">
         <f>C19*$F$19</f>
@@ -6297,7 +8240,7 @@
     </row>
     <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C24" s="63">
         <f>1.2*C3+(1.4*C7)+(3.3*C11)+(0.6*C15)+(1*C19)</f>
@@ -6338,21 +8281,21 @@
     <row r="4" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
       <c r="E4" s="81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F4" s="21">
         <v>2728</v>
       </c>
       <c r="G4" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="83" t="s">
         <v>303</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E5" s="81" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F5" s="92">
         <v>65757.33</v>
@@ -6366,16 +8309,16 @@
         <v>0.12863677087754044</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="4:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="130"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="131"/>
+      <c r="L6" s="105" t="s">
         <v>311</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="E6" s="134"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="135"/>
-      <c r="L6" s="105" t="s">
-        <v>312</v>
       </c>
       <c r="M6" s="103">
         <v>2499.8200000000002</v>
@@ -6387,21 +8330,21 @@
     </row>
     <row r="7" spans="4:17" ht="32" x14ac:dyDescent="0.2">
       <c r="E7" s="81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F7" s="92">
         <v>65757.33</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L7" s="105" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="4:17" ht="32" x14ac:dyDescent="0.2">
       <c r="E8" s="81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="21">
         <v>62810</v>
@@ -6411,34 +8354,34 @@
         <v>1.0469245343098232</v>
       </c>
       <c r="L8" s="105" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="E9" s="130"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="131"/>
+      <c r="L9" s="105" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="4:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="E9" s="134"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="135"/>
-      <c r="L9" s="105" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="10" spans="4:17" ht="32" x14ac:dyDescent="0.2">
       <c r="E10" s="81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F10" s="21">
         <v>62810</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E11" s="81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F11" s="21">
         <v>21207</v>
@@ -6450,7 +8393,7 @@
     </row>
     <row r="12" spans="4:17" x14ac:dyDescent="0.2">
       <c r="N12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O12" s="104">
         <v>11499.95</v>
@@ -6458,7 +8401,7 @@
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.2">
       <c r="N13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O13" s="104">
         <v>25803.53</v>
@@ -6466,7 +8409,7 @@
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O14" s="104">
         <f>O13-M6</f>
@@ -6475,7 +8418,7 @@
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.2">
       <c r="N15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O15" s="104">
         <f>O12-O14</f>
@@ -6511,31 +8454,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="K2" s="52" t="s">
         <v>4</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="54" t="s">
         <v>6</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -6544,14 +8487,14 @@
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
       <c r="K4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="53"/>
       <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="120"/>
       <c r="C5" s="120"/>
@@ -6562,7 +8505,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="120"/>
       <c r="C6" s="120"/>
@@ -6571,7 +8514,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6613,7 +8556,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3">
         <v>5.5E-2</v>
@@ -6678,7 +8621,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="61">
         <v>638</v>
@@ -6716,7 +8659,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="61">
         <v>638</v>
@@ -6754,7 +8697,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="70">
         <v>18497</v>
@@ -6792,7 +8735,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="70">
         <v>16799</v>
@@ -6830,7 +8773,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="70">
         <v>8052</v>
@@ -6868,7 +8811,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="70">
         <v>6217</v>
@@ -6906,7 +8849,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="61">
         <v>0</v>
@@ -6944,7 +8887,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="70">
         <v>2530</v>
@@ -6982,7 +8925,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="70">
         <v>16251</v>
@@ -7020,7 +8963,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="70">
         <v>8455</v>
@@ -7058,7 +9001,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="61">
         <v>342</v>
@@ -7096,7 +9039,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="70">
         <v>7454</v>
@@ -7134,7 +9077,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="73">
         <v>52185</v>
@@ -7200,7 +9143,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="70">
         <v>15456</v>
@@ -7238,7 +9181,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="61">
         <v>638</v>
@@ -7276,7 +9219,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="70">
         <v>2770</v>
@@ -7314,7 +9257,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="70">
         <v>17563</v>
@@ -7352,7 +9295,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="61">
         <v>49</v>
@@ -7390,7 +9333,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="61">
         <v>569</v>
@@ -7428,7 +9371,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="61">
         <v>122</v>
@@ -7466,7 +9409,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="61">
         <v>159</v>
@@ -7504,7 +9447,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="61">
         <v>35</v>
@@ -7542,7 +9485,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="70">
         <v>5161</v>
@@ -7580,7 +9523,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="70">
         <v>27067</v>
@@ -7618,7 +9561,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="70">
         <v>11611</v>
@@ -7656,7 +9599,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="70">
         <v>4753</v>
@@ -7694,7 +9637,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="70">
         <v>19934</v>
@@ -7732,7 +9675,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="70">
         <v>12042</v>
@@ -7770,7 +9713,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="70">
         <v>4455</v>
@@ -7808,7 +9751,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="70">
         <v>1818</v>
@@ -7846,7 +9789,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="61">
         <v>463</v>
@@ -7884,7 +9827,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="61">
         <v>275</v>
@@ -7922,7 +9865,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="70">
         <v>5031</v>
@@ -7960,7 +9903,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="8">
         <v>52185</v>
@@ -8053,7 +9996,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8062,7 +10005,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
@@ -8070,7 +10013,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8">
         <v>41729</v>
@@ -8126,7 +10069,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>34288.11</v>
@@ -8189,7 +10132,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6">
         <v>35183.600000000006</v>
@@ -8252,7 +10195,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2">
         <v>-895.49000000000524</v>
@@ -8315,7 +10258,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6">
         <v>3293.17</v>
@@ -8378,7 +10321,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6">
         <v>2070.3000000000002</v>
@@ -8441,7 +10384,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6">
         <v>1353.18</v>
@@ -8504,7 +10447,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6">
         <v>-1025.8</v>
@@ -8567,7 +10510,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6">
         <v>-1360.32</v>
@@ -8628,12 +10571,12 @@
         <v>-124.94399999999999</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2">
         <v>334.52</v>
@@ -8696,7 +10639,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6">
         <v>1.1585509454872895</v>
@@ -8759,7 +10702,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="6">
         <v>340.44251703933998</v>
@@ -8794,7 +10737,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2">
         <v>394.42</v>
@@ -8829,7 +10772,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8844,7 +10787,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="5">
         <v>1.9244888198015067</v>
@@ -8879,7 +10822,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -8944,24 +10887,24 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="5">
         <v>7.503422695287143E-2</v>
@@ -8978,7 +10921,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="5">
         <v>3.960599188452861E-2</v>
@@ -8995,7 +10938,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" s="6">
         <v>124.34928581804898</v>
@@ -9012,7 +10955,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="10">
         <f>K7/K4</f>
@@ -9021,7 +10964,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H28" s="10">
         <f>K8/K4</f>
@@ -9030,7 +10973,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="9">
         <f>K9/K4</f>
@@ -9093,7 +11036,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="72">
         <v>2258</v>
@@ -9131,7 +11074,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="72">
         <v>1648</v>
@@ -9169,7 +11112,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="21">
         <v>955</v>
@@ -9207,7 +11150,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="21">
         <v>129</v>
@@ -9245,7 +11188,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="21">
         <v>-250</v>
@@ -9283,7 +11226,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="21">
         <v>0</v>
@@ -9321,7 +11264,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="21">
         <v>-332</v>
@@ -9359,7 +11302,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="21">
         <v>503</v>
@@ -9397,7 +11340,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="21">
         <v>107</v>
@@ -9435,7 +11378,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="72">
         <v>1073</v>
@@ -9473,7 +11416,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="72">
         <v>-2605</v>
@@ -9511,7 +11454,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="21">
         <v>127</v>
@@ -9549,7 +11492,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="21">
         <v>-316</v>
@@ -9587,7 +11530,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="21">
         <v>11</v>
@@ -9625,7 +11568,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="21">
         <v>404</v>
@@ -9663,7 +11606,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="72">
         <v>1661</v>
@@ -9701,7 +11644,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="72">
         <v>1176</v>
@@ -9739,7 +11682,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="21">
         <v>-194</v>
@@ -9777,7 +11720,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="21">
         <v>21</v>
@@ -9815,7 +11758,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="21">
         <v>0</v>
@@ -9853,7 +11796,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="21">
         <v>0</v>
@@ -9891,7 +11834,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="21">
         <v>44</v>
@@ -9929,7 +11872,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="21">
         <v>746</v>
@@ -9967,7 +11910,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="72">
         <v>-4046</v>
@@ -10005,7 +11948,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="21">
         <v>0</v>
@@ -10043,7 +11986,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="21">
         <v>-97</v>
@@ -10081,7 +12024,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="72">
         <v>14437</v>
@@ -10119,7 +12062,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="72">
         <v>-12268</v>
@@ -10157,7 +12100,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="72">
         <v>-1809</v>
@@ -10195,7 +12138,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="72">
         <v>-1460</v>
@@ -10233,7 +12176,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="21">
         <v>0</v>
@@ -10271,7 +12214,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="72">
         <v>-2849</v>
@@ -10309,7 +12252,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="21">
         <v>-714</v>
@@ -10394,7 +12337,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="30">
         <v>5156.0171270964402</v>
@@ -10420,7 +12363,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -10434,7 +12377,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="30">
         <v>5156.0171270964402</v>
@@ -10470,11 +12413,11 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="34" t="e">
-        <f>'Beta Calculation'!H17</f>
-        <v>#DIV/0!</v>
+        <v>109</v>
+      </c>
+      <c r="B6" s="34">
+        <f ca="1">'Beta Calculation'!H17</f>
+        <v>1.7645935455405979</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -10485,36 +12428,36 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="32" t="e">
-        <f>B6*'WACC APPROACH'!B15</f>
-        <v>#DIV/0!</v>
+        <v>110</v>
+      </c>
+      <c r="B7" s="32">
+        <f ca="1">B6*'WACC APPROACH'!B15</f>
+        <v>0.95901823127206398</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="31" t="e">
-        <f>'WACC APPROACH'!B7+APV!B7*'WACC APPROACH'!B9</f>
-        <v>#DIV/0!</v>
+        <v>111</v>
+      </c>
+      <c r="B8" s="31">
+        <f ca="1">'WACC APPROACH'!B7+APV!B7*'WACC APPROACH'!B9</f>
+        <v>0.11198186066967759</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="37" t="e">
-        <f>NPV(B8,B4:H4)</f>
-        <v>#DIV/0!</v>
+        <v>112</v>
+      </c>
+      <c r="B9" s="37">
+        <f ca="1">NPV(B8,B4:H4)</f>
+        <v>173128.76185483666</v>
       </c>
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="21">
         <f>'WACC APPROACH'!F9</f>
@@ -10523,7 +12466,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="37">
         <v>0.3</v>
@@ -10531,7 +12474,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="37">
         <f>B10*B11</f>
@@ -10540,7 +12483,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="21">
         <v>0</v>
@@ -10548,11 +12491,11 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="37" t="e">
-        <f>B9+B12-B13</f>
-        <v>#DIV/0!</v>
+        <v>117</v>
+      </c>
+      <c r="B14" s="37">
+        <f ca="1">B9+B12-B13</f>
+        <v>178790.66185483665</v>
       </c>
     </row>
   </sheetData>
@@ -10579,10 +12522,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="121"/>
       <c r="F1" s="121"/>
@@ -10600,7 +12543,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="12">
         <f>IF(B7&gt;0, B7/B6, 0)</f>
@@ -10609,7 +12552,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -10617,7 +12560,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>627.5</v>
@@ -10625,7 +12568,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>229960.08</v>
@@ -10639,12 +12582,12 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="8">
         <v>41729</v>
@@ -10679,7 +12622,7 @@
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>34288.11</v>
@@ -10714,7 +12657,7 @@
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16">
         <v>25542.69</v>
@@ -10749,7 +12692,7 @@
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <v>-371.72</v>
@@ -10784,7 +12727,7 @@
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>392.09</v>
@@ -10819,7 +12762,7 @@
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19">
         <v>2584.06</v>
@@ -10854,7 +12797,7 @@
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>2924.97</v>
@@ -10889,7 +12832,7 @@
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21">
         <v>2311.38</v>
@@ -10924,7 +12867,7 @@
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22">
         <v>1056.69</v>
@@ -10959,7 +12902,7 @@
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>3293.17</v>
@@ -10994,7 +12937,7 @@
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>2070.3000000000002</v>
@@ -11029,7 +12972,7 @@
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>1353.18</v>
@@ -11064,7 +13007,7 @@
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>-1025.8</v>
@@ -11099,7 +13042,7 @@
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>-1360.32</v>
@@ -11134,7 +13077,7 @@
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>334.52</v>
@@ -11169,7 +13112,7 @@
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29">
         <v>643.78</v>
@@ -11205,12 +13148,12 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="8">
         <v>44286</v>
@@ -11245,7 +13188,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>13480.42</v>
@@ -11280,7 +13223,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>12304.9</v>
@@ -11315,7 +13258,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>1430.52</v>
@@ -11350,7 +13293,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>455.59</v>
@@ -11385,7 +13328,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>476.33</v>
@@ -11420,7 +13363,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>1674.12</v>
@@ -11455,7 +13398,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>28.44</v>
@@ -11490,7 +13433,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47">
         <v>1645.68</v>
@@ -11525,7 +13468,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>1175.52</v>
@@ -11572,12 +13515,12 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="8">
         <v>41729</v>
@@ -11612,7 +13555,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55">
         <v>643.78</v>
@@ -11647,7 +13590,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>18532.87</v>
@@ -11682,7 +13625,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57">
         <v>15052.8</v>
@@ -11717,7 +13660,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58">
         <v>15504.97</v>
@@ -11752,7 +13695,7 @@
     </row>
     <row r="59" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59">
         <v>49734.42</v>
@@ -11787,7 +13730,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60">
         <v>15240.57</v>
@@ -11822,7 +13765,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61">
         <v>6355.07</v>
@@ -11857,7 +13800,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62">
         <v>18458.419999999998</v>
@@ -11892,7 +13835,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>9680.36</v>
@@ -11927,7 +13870,7 @@
     </row>
     <row r="64" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64">
         <v>49734.42</v>
@@ -11962,7 +13905,7 @@
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>1216.7</v>
@@ -11997,7 +13940,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>3862.53</v>
@@ -12032,7 +13975,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67">
         <v>226.15</v>
@@ -12067,7 +14010,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68">
         <v>3218930000</v>
@@ -12102,12 +14045,12 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -12160,12 +14103,12 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="8">
         <v>41729</v>
@@ -12200,7 +14143,7 @@
     </row>
     <row r="80" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80">
         <v>2463.46</v>
@@ -12235,7 +14178,7 @@
     </row>
     <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81">
         <v>2563.46</v>
@@ -12270,7 +14213,7 @@
     </row>
     <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82">
         <v>-5033.8100000000004</v>
@@ -12305,7 +14248,7 @@
     </row>
     <row r="83" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>-6.89</v>
@@ -12352,7 +14295,7 @@
     </row>
     <row r="88" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88">
         <v>394.42</v>
@@ -12387,12 +14330,12 @@
     </row>
     <row r="90" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B91" s="13">
         <v>288.74</v>
@@ -12500,7 +14443,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>20772.919999999998</v>
@@ -12520,7 +14463,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>-302.89000000000306</v>
@@ -12544,7 +14487,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1">
         <f>'CASH FLOW'!F2</f>
@@ -12565,7 +14508,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:F6" si="1">B5-B4</f>
@@ -12618,7 +14561,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="18">
         <f>((F6/B6)^(1/5))-1</f>
@@ -12663,277 +14606,355 @@
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="19" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="B1" ca="1">_xlfn.STOCKHISTORY(A1,"1-1-18","1-1-23",2,2,1)</f>
+      <c r="B1" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="B1:B63" ca="1">_xlfn.STOCKHISTORY(A1,"1-1-18","1-1-23",2,2,1)</f>
+        <v>XNSE:TATAMOTORS</v>
+      </c>
+      <c r="C1" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="C1:C63" ca="1">_xlfn.STOCKHISTORY(A2,"1-1-18","1-1-23",2,2,1)</f>
+        <v>NIFTY</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="122"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="C1" s="19" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="C1" ca="1">_xlfn.STOCKHISTORY(A2,"1-1-18","1-1-23",2,2,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D1" s="122" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="122"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="20" t="str">
+        <f ca="1"/>
+        <v>Close</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f ca="1"/>
+        <v>Close</v>
+      </c>
       <c r="D2" s="122"/>
       <c r="E2" s="122"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="21" vm="3">
+        <f ca="1"/>
+        <v>399.5</v>
+      </c>
+      <c r="C3" s="21" vm="4">
+        <f ca="1"/>
+        <v>11027.7</v>
+      </c>
       <c r="D3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="21">
+        <f ca="1">AVERAGE(E4:E63)</f>
+        <v>9.4745567170216091E-3</v>
+      </c>
+      <c r="K3" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="21" t="e">
-        <f>AVERAGE(E4:E63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" vm="5">
+        <f ca="1"/>
+        <v>369.9</v>
+      </c>
+      <c r="C4" s="21" vm="6">
+        <f ca="1"/>
+        <v>10492.85</v>
+      </c>
+      <c r="D4" s="21">
+        <f ca="1">(B4-B3)/B3</f>
+        <v>-7.4092615769712197E-2</v>
+      </c>
+      <c r="E4" s="21">
+        <f ca="1">(C4-C3)/C3</f>
+        <v>-4.8500593958849113E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" vm="7">
+        <f ca="1"/>
+        <v>326.85000000000002</v>
+      </c>
+      <c r="C5" s="21" vm="8">
+        <f ca="1"/>
+        <v>10113.700000000001</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:E63" ca="1" si="0">(B5-B4)/B4</f>
+        <v>-0.11638280616382794</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.613412943099345E-2</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="e">
-        <f>(B4-B3)/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="21" t="e">
-        <f>(C4-C3)/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="e">
-        <f t="shared" ref="D5:E63" si="0">(B5-B4)/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="21">
+        <f ca="1">H3*12</f>
+        <v>0.1136946806042593</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="21" t="e">
-        <f>H3*12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" vm="9">
+        <f ca="1"/>
+        <v>340.4</v>
+      </c>
+      <c r="C6" s="21" vm="10">
+        <f ca="1"/>
+        <v>10739.35</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1456325531589275E-2</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1861633230172894E-2</v>
+      </c>
+      <c r="K6" t="s">
         <v>165</v>
-      </c>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="s">
-        <v>166</v>
       </c>
       <c r="L6">
         <v>0.56123914281005727</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7" s="21" vm="11">
+        <f ca="1"/>
+        <v>282.5</v>
+      </c>
+      <c r="C7" s="21" vm="12">
+        <f ca="1"/>
+        <v>10736.15</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.17009400705052874</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.9796961641074437E-4</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L7">
         <v>0.31498937542216787</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8" s="21" vm="13">
+        <f ca="1"/>
+        <v>269.3</v>
+      </c>
+      <c r="C8" s="21" vm="14">
+        <f ca="1"/>
+        <v>10714.3</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.6725663716814116E-2</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.0351802089203638E-3</v>
       </c>
       <c r="G8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="21">
+        <f ca="1">_xlfn.VAR.P(E4:E63)</f>
+        <v>3.0707140182515474E-3</v>
+      </c>
+      <c r="K8" t="s">
         <v>168</v>
-      </c>
-      <c r="H8" s="21" t="e">
-        <f>_xlfn.VAR.P(E4:E63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="s">
-        <v>169</v>
       </c>
       <c r="L8">
         <v>0.30317884741220524</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9" s="21" vm="15">
+        <f ca="1"/>
+        <v>264.10000000000002</v>
+      </c>
+      <c r="C9" s="21" vm="16">
+        <f ca="1"/>
+        <v>11356.5</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.9309320460452983E-2</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9938586748551077E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L9">
         <v>0.14666507263620795</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="21" vm="17">
+        <f ca="1"/>
+        <v>267.5</v>
+      </c>
+      <c r="C10" s="21" vm="18">
+        <f ca="1"/>
+        <v>11680.5</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2873911397197945E-2</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8529916787742703E-2</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>172</v>
       </c>
       <c r="L10" s="25">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="21" vm="19">
+        <f ca="1"/>
+        <v>223.7</v>
+      </c>
+      <c r="C11" s="21" vm="20">
+        <f ca="1"/>
+        <v>10930.45</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.16373831775700939</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.4213860708017573E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12" s="21" vm="21">
+        <f ca="1"/>
+        <v>179.1</v>
+      </c>
+      <c r="C12" s="21" vm="22">
+        <f ca="1"/>
+        <v>10386.6</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.19937416182387124</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.9755499544849507E-2</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>161</v>
-      </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13" s="21" vm="23">
+        <f ca="1"/>
+        <v>171.95</v>
+      </c>
+      <c r="C13" s="21" vm="24">
+        <f ca="1"/>
+        <v>10876.75</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.9921831379117846E-2</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7190610979531283E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" t="e">
-        <f>VARP('Beta Calculation'!$D$4:$D$63)</f>
-        <v>#DIV/0!</v>
+        <v>159</v>
+      </c>
+      <c r="H13">
+        <f ca="1">VARP('Beta Calculation'!$D$4:$D$63)</f>
+        <v>3.0355181853059576E-2</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="N13" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="O13" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="P13" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="26" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="14" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14" s="21" vm="25">
+        <f ca="1"/>
+        <v>172.7</v>
+      </c>
+      <c r="C14" s="21" vm="26">
+        <f ca="1"/>
+        <v>10862.55</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3617330619366099E-3</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3055370400166159E-3</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="25">
         <v>5.4185621368077145E-3</v>
       </c>
-      <c r="I14" s="25" t="e">
-        <f>VARP('Beta Calculation'!$E$4:$E$63)</f>
-        <v>#DIV/0!</v>
+      <c r="I14" s="25">
+        <f ca="1">VARP('Beta Calculation'!$E$4:$E$63)</f>
+        <v>3.0707140182515474E-3</v>
       </c>
       <c r="K14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -12952,18 +14973,24 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15" s="21" vm="27">
+        <f ca="1"/>
+        <v>181.2</v>
+      </c>
+      <c r="C15" s="21" vm="28">
+        <f ca="1"/>
+        <v>10830.95</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9218297625940939E-2</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.9090775186303903E-3</v>
       </c>
       <c r="K15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L15">
         <v>58</v>
@@ -12976,18 +15003,24 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16" s="21" vm="29">
+        <f ca="1"/>
+        <v>177.45</v>
+      </c>
+      <c r="C16" s="21" vm="30">
+        <f ca="1"/>
+        <v>10792.5</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.0695364238410598E-2</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.5500117718206365E-3</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L16" s="25">
         <v>59</v>
@@ -13000,74 +15033,92 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="21" vm="31">
+        <f ca="1"/>
+        <v>174.25</v>
+      </c>
+      <c r="C17" s="21" vm="32">
+        <f ca="1"/>
+        <v>11623.9</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.8033248802479508E-2</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7034977993977266E-2</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="21" t="e">
-        <f>H14/H8</f>
-        <v>#DIV/0!</v>
+        <v>180</v>
+      </c>
+      <c r="H17" s="21">
+        <f ca="1">H14/H8</f>
+        <v>1.7645935455405979</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18" s="21" vm="33">
+        <f ca="1"/>
+        <v>214.3</v>
+      </c>
+      <c r="C18" s="21" vm="34">
+        <f ca="1"/>
+        <v>11748.15</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22984218077474899</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0689183492631562E-2</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="N18" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="M18" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="N18" s="26" t="s">
+      <c r="O18" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="P18" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="P18" s="26" t="s">
+      <c r="Q18" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="R18" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="S18" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S18" s="26" t="s">
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" vm="35">
+        <f ca="1"/>
+        <v>172.6</v>
+      </c>
+      <c r="C19" s="21" vm="36">
+        <f ca="1"/>
+        <v>11922.8</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.19458702753149798</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4866170418321152E-2</v>
+      </c>
+      <c r="K19" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" t="s">
-        <v>189</v>
       </c>
       <c r="L19">
         <v>-1.6884876105537419E-4</v>
@@ -13096,18 +15147,24 @@
       <c r="T19" s="27"/>
     </row>
     <row r="20" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20" s="21" vm="37">
+        <f ca="1"/>
+        <v>162.55000000000001</v>
+      </c>
+      <c r="C20" s="21" vm="38">
+        <f ca="1"/>
+        <v>11788.85</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.8227114716106511E-2</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1234777065789825E-2</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L20" s="28">
         <v>1.7645935455405986</v>
@@ -13135,519 +15192,777 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="21" vm="39">
+        <f ca="1"/>
+        <v>135.6</v>
+      </c>
+      <c r="C21" s="21" vm="40">
+        <f ca="1"/>
+        <v>11118</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.16579513995693643</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.6905465757898385E-2</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B22" s="21" vm="41">
+        <f ca="1"/>
+        <v>116.7</v>
+      </c>
+      <c r="C22" s="21" vm="42">
+        <f ca="1"/>
+        <v>11023.25</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.13938053097345127</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.5222162259399169E-3</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B23" s="21" vm="43">
+        <f ca="1"/>
+        <v>117.45</v>
+      </c>
+      <c r="C23" s="21" vm="44">
+        <f ca="1"/>
+        <v>11474.45</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4267352185089976E-3</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0931667158052368E-2</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B24" s="21" vm="45">
+        <f ca="1"/>
+        <v>177.7</v>
+      </c>
+      <c r="C24" s="21" vm="46">
+        <f ca="1"/>
+        <v>11877.45</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51298424861643244</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5121509091939042E-2</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B25" s="21" vm="47">
+        <f ca="1"/>
+        <v>161.5</v>
+      </c>
+      <c r="C25" s="21" vm="48">
+        <f ca="1"/>
+        <v>12056.05</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.116488463702864E-2</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.503689765058986E-2</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B26" s="21" vm="49">
+        <f ca="1"/>
+        <v>185.15</v>
+      </c>
+      <c r="C26" s="21" vm="50">
+        <f ca="1"/>
+        <v>12168.45</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14643962848297218</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3231199273395068E-3</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B27" s="21" vm="51">
+        <f ca="1"/>
+        <v>176.6</v>
+      </c>
+      <c r="C27" s="21" vm="52">
+        <f ca="1"/>
+        <v>11962.1</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.6178773967053798E-2</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.695778837896366E-2</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B28" s="21" vm="53">
+        <f ca="1"/>
+        <v>128.94999999999999</v>
+      </c>
+      <c r="C28" s="21" vm="54">
+        <f ca="1"/>
+        <v>11201.75</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.26981879954699889</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.3563253943705558E-2</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B29" s="21" vm="55">
+        <f ca="1"/>
+        <v>71.05</v>
+      </c>
+      <c r="C29" s="21" vm="56">
+        <f ca="1"/>
+        <v>8597.75</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.44901124466847614</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.23246367755038275</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B30" s="21" vm="57">
+        <f ca="1"/>
+        <v>93.25</v>
+      </c>
+      <c r="C30" s="21" vm="58">
+        <f ca="1"/>
+        <v>9859.9</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31245601688951447</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14680003489284982</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B31" s="21" vm="59">
+        <f ca="1"/>
+        <v>87</v>
+      </c>
+      <c r="C31" s="21" vm="60">
+        <f ca="1"/>
+        <v>9580.2999999999993</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.7024128686327081E-2</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.8357285570847612E-2</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B32" s="21" vm="61">
+        <f ca="1"/>
+        <v>98.25</v>
+      </c>
+      <c r="C32" s="21" vm="62">
+        <f ca="1"/>
+        <v>10302.1</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12931034482758622</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5342108284709372E-2</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B33" s="21" vm="63">
+        <f ca="1"/>
+        <v>104.65</v>
+      </c>
+      <c r="C33" s="21" vm="64">
+        <f ca="1"/>
+        <v>11073.45</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5139949109414813E-2</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4873084128478692E-2</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B34" s="21" vm="65">
+        <f ca="1"/>
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C34" s="21" vm="66">
+        <f ca="1"/>
+        <v>11387.5</v>
+      </c>
+      <c r="D34" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3683707596751073</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8360628349791552E-2</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B35" s="21" vm="67">
+        <f ca="1"/>
+        <v>133.30000000000001</v>
+      </c>
+      <c r="C35" s="21" vm="68">
+        <f ca="1"/>
+        <v>11247.55</v>
+      </c>
+      <c r="D35" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.9134078212290354E-2</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.2289791437980306E-2</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B36" s="21" vm="69">
+        <f ca="1"/>
+        <v>132.65</v>
+      </c>
+      <c r="C36" s="21" vm="70">
+        <f ca="1"/>
+        <v>11642.4</v>
+      </c>
+      <c r="D36" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.8762190547637328E-3</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5105422958777721E-2</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B37" s="21" vm="71">
+        <f ca="1"/>
+        <v>180.35</v>
+      </c>
+      <c r="C37" s="21" vm="72">
+        <f ca="1"/>
+        <v>12968.95</v>
+      </c>
+      <c r="D37" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35959291368262336</v>
+      </c>
+      <c r="E37" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11394128358414082</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B38" s="21" vm="73">
+        <f ca="1"/>
+        <v>183.85</v>
+      </c>
+      <c r="C38" s="21" vm="74">
+        <f ca="1"/>
+        <v>13981.75</v>
+      </c>
+      <c r="D38" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9406709176601054E-2</v>
+      </c>
+      <c r="E38" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8094217342190325E-2</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B39" s="21" vm="75">
+        <f ca="1"/>
+        <v>262.7</v>
+      </c>
+      <c r="C39" s="21" vm="76">
+        <f ca="1"/>
+        <v>13634.6</v>
+      </c>
+      <c r="D39" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42888224095730215</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.4828794678777667E-2</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B40" s="21" vm="77">
+        <f ca="1"/>
+        <v>322.95</v>
+      </c>
+      <c r="C40" s="21" vm="78">
+        <f ca="1"/>
+        <v>14529.15</v>
+      </c>
+      <c r="D40" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2293490673772364</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5608818740557059E-2</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B41" s="21" vm="79">
+        <f ca="1"/>
+        <v>301.8</v>
+      </c>
+      <c r="C41" s="21" vm="80">
+        <f ca="1"/>
+        <v>14690.7</v>
+      </c>
+      <c r="D41" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.5490013934045452E-2</v>
+      </c>
+      <c r="E41" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1119026233468655E-2</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B42" s="21" vm="81">
+        <f ca="1"/>
+        <v>293.85000000000002</v>
+      </c>
+      <c r="C42" s="21" vm="82">
+        <f ca="1"/>
+        <v>14631.1</v>
+      </c>
+      <c r="D42" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.6341948310139127E-2</v>
+      </c>
+      <c r="E42" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.056988434860174E-3</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B43" s="21" vm="83">
+        <f ca="1"/>
+        <v>318.75</v>
+      </c>
+      <c r="C43" s="21" vm="84">
+        <f ca="1"/>
+        <v>15582.8</v>
+      </c>
+      <c r="D43" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4737110770801344E-2</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5046373820150147E-2</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B44" s="21" vm="85">
+        <f ca="1"/>
+        <v>339.6</v>
+      </c>
+      <c r="C44" s="21" vm="86">
+        <f ca="1"/>
+        <v>15721.5</v>
+      </c>
+      <c r="D44" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5411764705882419E-2</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9008393870165011E-3</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B45" s="21" vm="87">
+        <f ca="1"/>
+        <v>293.95</v>
+      </c>
+      <c r="C45" s="21" vm="88">
+        <f ca="1"/>
+        <v>15763.05</v>
+      </c>
+      <c r="D45" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.1344228504122498</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6428775880163644E-3</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B46" s="21" vm="89">
+        <f ca="1"/>
+        <v>287.3</v>
+      </c>
+      <c r="C46" s="21" vm="90">
+        <f ca="1"/>
+        <v>17132.2</v>
+      </c>
+      <c r="D46" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.2622895050178525E-2</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6858190515160555E-2</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B47" s="21" vm="91">
+        <f ca="1"/>
+        <v>333.35</v>
+      </c>
+      <c r="C47" s="21" vm="92">
+        <f ca="1"/>
+        <v>17618.150000000001</v>
+      </c>
+      <c r="D47" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16028541594152457</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8364716732235246E-2</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B48" s="21" vm="93">
+        <f ca="1"/>
+        <v>483.7</v>
+      </c>
+      <c r="C48" s="21" vm="94">
+        <f ca="1"/>
+        <v>17671.650000000001</v>
+      </c>
+      <c r="D48" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45102744862756849</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0366411910444624E-3</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B49" s="21" vm="95">
+        <f ca="1"/>
+        <v>458.6</v>
+      </c>
+      <c r="C49" s="21" vm="96">
+        <f ca="1"/>
+        <v>16983.2</v>
+      </c>
+      <c r="D49" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.1891668389497554E-2</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.8957878862471852E-2</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B50" s="21" vm="97">
+        <f ca="1"/>
+        <v>482.4</v>
+      </c>
+      <c r="C50" s="21" vm="98">
+        <f ca="1"/>
+        <v>17354.05</v>
+      </c>
+      <c r="D50" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1897078063671942E-2</v>
+      </c>
+      <c r="E50" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1836285270149237E-2</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B51" s="21" vm="99">
+        <f ca="1"/>
+        <v>517.75</v>
+      </c>
+      <c r="C51" s="21" vm="100">
+        <f ca="1"/>
+        <v>17339.849999999999</v>
+      </c>
+      <c r="D51" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3279436152570529E-2</v>
+      </c>
+      <c r="E51" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.1825279977876795E-4</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B52" s="21" vm="101">
+        <f ca="1"/>
+        <v>454.05</v>
+      </c>
+      <c r="C52" s="21" vm="102">
+        <f ca="1"/>
+        <v>16793.900000000001</v>
+      </c>
+      <c r="D52" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.12303235152100432</v>
+      </c>
+      <c r="E52" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.1485278131010194E-2</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B53" s="21" vm="103">
+        <f ca="1"/>
+        <v>433.75</v>
+      </c>
+      <c r="C53" s="21" vm="104">
+        <f ca="1"/>
+        <v>17464.75</v>
+      </c>
+      <c r="D53" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.4708732518445128E-2</v>
+      </c>
+      <c r="E53" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9946051840251427E-2</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E54" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B54" s="21" vm="105">
+        <f ca="1"/>
+        <v>437.6</v>
+      </c>
+      <c r="C54" s="21" vm="106">
+        <f ca="1"/>
+        <v>17102.55</v>
+      </c>
+      <c r="D54" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8760806916427029E-3</v>
+      </c>
+      <c r="E54" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.0738916961307818E-2</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E55" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B55" s="21" vm="107">
+        <f ca="1"/>
+        <v>443.55</v>
+      </c>
+      <c r="C55" s="21" vm="108">
+        <f ca="1"/>
+        <v>16584.55</v>
+      </c>
+      <c r="D55" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3596892138939644E-2</v>
+      </c>
+      <c r="E55" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.0287881046978375E-2</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E56" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B56" s="21" vm="109">
+        <f ca="1"/>
+        <v>411.8</v>
+      </c>
+      <c r="C56" s="21" vm="110">
+        <f ca="1"/>
+        <v>15780.25</v>
+      </c>
+      <c r="D56" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.1581557885244049E-2</v>
+      </c>
+      <c r="E56" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.849694444528186E-2</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B57" s="21" vm="111">
+        <f ca="1"/>
+        <v>449.6</v>
+      </c>
+      <c r="C57" s="21" vm="112">
+        <f ca="1"/>
+        <v>17158.25</v>
+      </c>
+      <c r="D57" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1792132102962623E-2</v>
+      </c>
+      <c r="E57" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7324345305049039E-2</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E58" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B58" s="21" vm="113">
+        <f ca="1"/>
+        <v>471.1</v>
+      </c>
+      <c r="C58" s="21" vm="114">
+        <f ca="1"/>
+        <v>17759.3</v>
+      </c>
+      <c r="D58" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7820284697508895E-2</v>
+      </c>
+      <c r="E58" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5029796162195988E-2</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E59" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B59" s="21" vm="115">
+        <f ca="1"/>
+        <v>404.6</v>
+      </c>
+      <c r="C59" s="21" vm="116">
+        <f ca="1"/>
+        <v>17094.349999999999</v>
+      </c>
+      <c r="D59" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.14115898959881129</v>
+      </c>
+      <c r="E59" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.7442354146841418E-2</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E60" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B60" s="21" vm="117">
+        <f ca="1"/>
+        <v>412.75</v>
+      </c>
+      <c r="C60" s="21" vm="118">
+        <f ca="1"/>
+        <v>18012.2</v>
+      </c>
+      <c r="D60" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0143351458230294E-2</v>
+      </c>
+      <c r="E60" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3693179325332768E-2</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E61" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B61" s="21" vm="119">
+        <f ca="1"/>
+        <v>439.4</v>
+      </c>
+      <c r="C61" s="21" vm="120">
+        <f ca="1"/>
+        <v>18758.349999999999</v>
+      </c>
+      <c r="D61" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4566929133858211E-2</v>
+      </c>
+      <c r="E61" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1424701035964392E-2</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E62" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B62" s="21" vm="121">
+        <f ca="1"/>
+        <v>387.95</v>
+      </c>
+      <c r="C62" s="21" vm="122">
+        <f ca="1"/>
+        <v>18105.3</v>
+      </c>
+      <c r="D62" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.11709148839326353</v>
+      </c>
+      <c r="E62" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.4813829574562756E-2</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E63" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B63" s="21" vm="123">
+        <f ca="1"/>
+        <v>452.1</v>
+      </c>
+      <c r="C63" s="21" vm="124">
+        <f ca="1"/>
+        <v>17662.150000000001</v>
+      </c>
+      <c r="D63" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16535636035571605</v>
+      </c>
+      <c r="E63" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.4476258333195132E-2</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -13809,20 +16124,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="95a205a8-8fdb-4c3f-b746-ad843f23dbc7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="95a205a8-8fdb-4c3f-b746-ad843f23dbc7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13844,14 +16159,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C5AF88-5766-4578-928A-7544EC364174}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5F4A9F4-0349-4879-A547-869F7F779313}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -13865,4 +16172,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C5AF88-5766-4578-928A-7544EC364174}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>